--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -499,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -511,6 +517,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,65 +539,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -612,1905 +631,2193 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -517,7 +517,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,28 +32,31 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del dichiarante</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -632,2192 +635,2192 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
@@ -2762,7 +2762,7 @@
         <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>140</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -356,6 +362,9 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Atto Nascita Figlio</t>
   </si>
   <si>
@@ -410,22 +419,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Dati generali</t>
@@ -508,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -991,7 +1000,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -1000,7 +1009,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>19</v>
@@ -1083,7 +1092,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -1115,7 +1124,7 @@
         <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>19</v>
@@ -1138,7 +1147,7 @@
         <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>19</v>
@@ -1161,7 +1170,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>19</v>
@@ -1198,7 +1207,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>29</v>
@@ -1207,7 +1216,7 @@
         <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>19</v>
@@ -1261,19 +1270,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1284,19 +1293,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1307,19 +1316,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1330,19 +1339,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1353,19 +1362,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1376,19 +1385,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1399,19 +1408,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1422,19 +1431,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1445,19 +1454,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1468,19 +1477,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1500,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1523,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1537,7 +1546,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>85</v>
@@ -1546,10 +1555,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1560,7 +1569,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>86</v>
@@ -1569,10 +1578,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1592,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1615,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1629,7 +1638,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>89</v>
@@ -1638,10 +1647,10 @@
         <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1652,7 +1661,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>90</v>
@@ -1661,10 +1670,10 @@
         <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1675,7 +1684,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>91</v>
@@ -1684,10 +1693,10 @@
         <v>28</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1707,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1730,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1753,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1776,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1799,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1822,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1845,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1868,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1891,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1914,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1937,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,7 +1960,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>81</v>
@@ -1960,10 +1969,10 @@
         <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,7 +1983,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>82</v>
@@ -1983,10 +1992,10 @@
         <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2006,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2029,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2052,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2075,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2098,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2121,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2144,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2167,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2190,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2213,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2236,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2259,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2276,16 +2285,16 @@
         <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2299,16 +2308,16 @@
         <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2322,16 +2331,16 @@
         <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2351,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2374,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2397,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2420,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2443,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2466,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2489,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2512,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2535,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2558,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2581,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2604,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2627,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2650,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2673,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2696,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2719,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2733,19 +2742,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2756,19 +2765,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2779,19 +2788,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2802,24 +2811,116 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
@@ -2564,7 +2564,7 @@
         <v>51</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>98</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -227,6 +227,30 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>flag dichiarante</t>
   </si>
   <si>
@@ -294,6 +318,12 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -517,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -527,7 +557,7 @@
     <col min="2" max="2" width="45.2734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1230,7 +1260,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>29</v>
@@ -1253,7 +1283,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>29</v>
@@ -1262,7 +1292,7 @@
         <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>19</v>
@@ -1276,7 +1306,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>29</v>
@@ -1293,22 +1323,22 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>19</v>
@@ -1316,19 +1346,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1339,19 +1369,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1362,19 +1392,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1385,19 +1415,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1408,19 +1438,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1431,19 +1461,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1484,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1507,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1530,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1553,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1576,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1599,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1622,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1645,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1668,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1691,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1714,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1737,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1760,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1783,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1806,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1829,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1852,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1875,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1898,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1921,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1944,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1967,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1990,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1983,19 +2013,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2036,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2059,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2082,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2105,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2128,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2121,7 +2151,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>87</v>
@@ -2130,10 +2160,10 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2144,7 +2174,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>88</v>
@@ -2153,10 +2183,10 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2167,7 +2197,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>89</v>
@@ -2176,10 +2206,10 @@
         <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2190,7 +2220,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>90</v>
@@ -2199,10 +2229,10 @@
         <v>28</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2213,7 +2243,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>91</v>
@@ -2222,10 +2252,10 @@
         <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2236,7 +2266,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>92</v>
@@ -2245,10 +2275,10 @@
         <v>28</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2289,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2312,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2335,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2358,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2381,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2404,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2427,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2450,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2473,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2496,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2519,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2542,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2565,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2588,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2611,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2634,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2657,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2680,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2703,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2726,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2749,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2772,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2795,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2818,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2841,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2864,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2887,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2910,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2903,24 +2933,346 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -293,10 +299,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -547,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -846,7 +849,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -938,7 +941,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>29</v>
@@ -970,7 +973,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>19</v>
@@ -993,7 +996,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>19</v>
@@ -1016,7 +1019,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>19</v>
@@ -1053,7 +1056,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
@@ -1062,7 +1065,7 @@
         <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>19</v>
@@ -1145,7 +1148,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -1177,7 +1180,7 @@
         <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>19</v>
@@ -1200,7 +1203,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>19</v>
@@ -1223,7 +1226,7 @@
         <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>19</v>
@@ -1269,7 +1272,7 @@
         <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>19</v>
@@ -1292,7 +1295,7 @@
         <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>19</v>
@@ -1315,7 +1318,7 @@
         <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>19</v>
@@ -1338,7 +1341,7 @@
         <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>19</v>
@@ -1352,7 +1355,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>29</v>
@@ -1361,7 +1364,7 @@
         <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>19</v>
@@ -1415,19 +1418,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1438,19 +1441,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1461,19 +1464,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1484,19 +1487,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1507,19 +1510,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1530,19 +1533,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1556,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1579,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1599,7 +1602,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>91</v>
@@ -1608,10 +1611,10 @@
         <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1622,7 +1625,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>92</v>
@@ -1631,10 +1634,10 @@
         <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1648,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1671,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1694,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1717,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1740,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1763,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1786,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1806,19 +1809,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1832,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1855,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1878,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1901,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1924,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1947,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1970,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1990,19 +1993,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2016,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2039,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2062,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2085,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2108,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2131,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2154,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2177,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2200,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2223,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2246,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2269,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2292,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2315,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2338,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2361,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2384,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2407,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2430,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2453,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2476,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2499,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2522,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2545,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2568,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2591,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2614,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2637,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2660,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2683,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2703,19 +2706,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2726,19 +2729,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2752,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2775,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2795,19 +2798,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2818,19 +2821,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2844,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2864,19 +2867,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2887,19 +2890,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2910,19 +2913,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2933,19 +2936,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2956,19 +2959,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2979,19 +2982,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3002,19 +3005,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3025,19 +3028,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3048,19 +3051,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3071,19 +3074,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3094,19 +3097,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3117,19 +3120,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3140,19 +3143,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3166,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3186,19 +3189,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3209,19 +3212,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3232,19 +3235,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3255,24 +3258,93 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1125,7 +1131,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -1134,7 +1140,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>19</v>
@@ -1148,7 +1154,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -1180,7 +1186,7 @@
         <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>19</v>
@@ -1203,7 +1209,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>19</v>
@@ -1226,7 +1232,7 @@
         <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>19</v>
@@ -1249,7 +1255,7 @@
         <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>19</v>
@@ -1295,7 +1301,7 @@
         <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>19</v>
@@ -1318,7 +1324,7 @@
         <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>19</v>
@@ -1341,7 +1347,7 @@
         <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>19</v>
@@ -1364,7 +1370,7 @@
         <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>19</v>
@@ -1378,7 +1384,7 @@
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>29</v>
@@ -1387,7 +1393,7 @@
         <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>19</v>
@@ -1441,19 +1447,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1464,19 +1470,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1487,19 +1493,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1510,19 +1516,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1533,19 +1539,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1562,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1585,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1602,19 +1608,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1625,19 +1631,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1648,19 +1654,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1677,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1700,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1723,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1746,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1809,7 +1815,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>98</v>
@@ -1818,10 +1824,10 @@
         <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1832,7 +1838,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>99</v>
@@ -1841,10 +1847,10 @@
         <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1855,7 +1861,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>100</v>
@@ -1864,10 +1870,10 @@
         <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1878,7 +1884,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>101</v>
@@ -1887,10 +1893,10 @@
         <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1901,7 +1907,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>102</v>
@@ -1910,10 +1916,10 @@
         <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1930,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1953,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1970,19 +1976,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1993,19 +1999,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2022,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2045,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2114,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2137,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2160,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2183,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2206,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2275,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2298,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2315,7 +2321,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>93</v>
@@ -2324,10 +2330,10 @@
         <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2338,7 +2344,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>94</v>
@@ -2347,10 +2353,10 @@
         <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2413,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2436,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2453,7 +2459,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>97</v>
@@ -2462,10 +2468,10 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2482,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2505,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2528,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2551,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2574,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2597,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2614,19 +2620,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2643,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2660,19 +2666,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2683,19 +2689,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2706,19 +2712,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2729,19 +2735,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2752,19 +2758,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2778,16 +2784,16 @@
         <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2801,16 +2807,16 @@
         <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2824,16 +2830,16 @@
         <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2844,19 +2850,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2867,19 +2873,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2890,19 +2896,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2913,19 +2919,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2936,19 +2942,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2959,19 +2965,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2982,19 +2988,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3005,19 +3011,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3028,19 +3034,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3051,19 +3057,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3074,19 +3080,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3097,19 +3103,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3126,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3143,19 +3149,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3166,19 +3172,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3189,19 +3195,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3212,19 +3218,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3235,19 +3241,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3258,19 +3264,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3281,19 +3287,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3304,19 +3310,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3327,24 +3333,93 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="B124" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -556,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1795,7 +1801,7 @@
         <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>28</v>
@@ -1804,7 +1810,7 @@
         <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1818,7 +1824,7 @@
         <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>28</v>
@@ -1827,7 +1833,7 @@
         <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1841,7 +1847,7 @@
         <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>28</v>
@@ -1850,7 +1856,7 @@
         <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1864,7 +1870,7 @@
         <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>28</v>
@@ -1873,7 +1879,7 @@
         <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1887,7 +1893,7 @@
         <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>28</v>
@@ -1896,7 +1902,7 @@
         <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1910,7 +1916,7 @@
         <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>28</v>
@@ -1919,7 +1925,7 @@
         <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1933,7 +1939,7 @@
         <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>28</v>
@@ -1942,7 +1948,7 @@
         <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1956,7 +1962,7 @@
         <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>28</v>
@@ -1965,7 +1971,7 @@
         <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1979,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2002,7 +2008,7 @@
         <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -2011,7 +2017,7 @@
         <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2025,7 +2031,7 @@
         <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -2034,7 +2040,7 @@
         <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2048,16 +2054,16 @@
         <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2071,7 +2077,7 @@
         <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>28</v>
@@ -2080,7 +2086,7 @@
         <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2094,7 +2100,7 @@
         <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>28</v>
@@ -2103,7 +2109,7 @@
         <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2117,7 +2123,7 @@
         <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>28</v>
@@ -2126,7 +2132,7 @@
         <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2140,7 +2146,7 @@
         <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>28</v>
@@ -2149,7 +2155,7 @@
         <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2160,19 +2166,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2183,19 +2189,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2212,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2235,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2258,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2281,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2304,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2327,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2350,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2373,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2396,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2419,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2442,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2465,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2488,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2505,7 +2511,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>98</v>
@@ -2514,10 +2520,10 @@
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2534,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2551,7 +2557,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>100</v>
@@ -2560,10 +2566,10 @@
         <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2574,7 +2580,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>101</v>
@@ -2583,10 +2589,10 @@
         <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2597,7 +2603,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>102</v>
@@ -2606,10 +2612,10 @@
         <v>28</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2620,7 +2626,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>103</v>
@@ -2629,10 +2635,10 @@
         <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2643,7 +2649,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>104</v>
@@ -2652,10 +2658,10 @@
         <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2666,19 +2672,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2695,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2712,19 +2718,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2735,19 +2741,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2764,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2781,19 +2787,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2804,19 +2810,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2827,19 +2833,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2853,16 +2859,16 @@
         <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2876,16 +2882,16 @@
         <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2896,19 +2902,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2919,19 +2925,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2942,19 +2948,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2965,19 +2971,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2988,19 +2994,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3011,19 +3017,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3034,19 +3040,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3057,19 +3063,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3080,19 +3086,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3103,19 +3109,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3132,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3155,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3178,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3195,19 +3201,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3218,19 +3224,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3241,19 +3247,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3264,19 +3270,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3287,19 +3293,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3310,19 +3316,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3333,19 +3339,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3356,19 +3362,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3379,19 +3385,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3402,24 +3408,70 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="B126" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -562,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3391,7 +3397,7 @@
         <v>154</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>134</v>
@@ -3408,19 +3414,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3431,16 +3437,16 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>161</v>
@@ -3454,7 +3460,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>162</v>
@@ -3463,7 +3469,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>163</v>
@@ -3472,6 +3478,29 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="170">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -568,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -913,7 +925,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -936,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
@@ -945,7 +957,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>19</v>
@@ -982,7 +994,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -1005,7 +1017,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
@@ -1014,7 +1026,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>19</v>
@@ -1083,7 +1095,7 @@
         <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>19</v>
@@ -1097,7 +1109,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
@@ -1106,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>19</v>
@@ -1120,7 +1132,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
@@ -1129,7 +1141,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>19</v>
@@ -1143,7 +1155,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -1152,7 +1164,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>19</v>
@@ -1166,7 +1178,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -1313,7 +1325,7 @@
         <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>19</v>
@@ -1336,7 +1348,7 @@
         <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>19</v>
@@ -1419,7 +1431,7 @@
         <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>29</v>
@@ -1442,7 +1454,7 @@
         <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>29</v>
@@ -1451,7 +1463,7 @@
         <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>19</v>
@@ -1482,19 +1494,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1517,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1540,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1563,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1586,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1609,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1632,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1655,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1678,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1701,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1724,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1747,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1770,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1793,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1816,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1839,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1862,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1885,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1896,7 +1908,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>102</v>
@@ -1905,10 +1917,10 @@
         <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1931,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1942,7 +1954,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>104</v>
@@ -1951,10 +1963,10 @@
         <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1965,7 +1977,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>105</v>
@@ -1974,10 +1986,10 @@
         <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1988,7 +2000,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>106</v>
@@ -1997,10 +2009,10 @@
         <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2023,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2046,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2069,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2092,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2115,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2138,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2161,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2184,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2207,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2230,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2253,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2276,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2299,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2322,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2345,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2368,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2391,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2414,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2437,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2460,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2483,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2506,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2517,7 +2529,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>98</v>
@@ -2526,10 +2538,10 @@
         <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2552,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2563,7 +2575,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>100</v>
@@ -2572,10 +2584,10 @@
         <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2598,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2621,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2644,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2667,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2690,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2713,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2736,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2759,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2782,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2805,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2816,19 +2828,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2839,19 +2851,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2862,19 +2874,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2897,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2908,19 +2920,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2943,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2966,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2989,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3012,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3035,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C107" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3058,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3081,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3092,19 +3104,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3115,19 +3127,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3138,19 +3150,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3161,19 +3173,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3184,19 +3196,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3207,19 +3219,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3230,19 +3242,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3253,19 +3265,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3276,19 +3288,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3299,19 +3311,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3322,19 +3334,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3345,19 +3357,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3368,19 +3380,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3391,19 +3403,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3414,19 +3426,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3437,19 +3449,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3460,19 +3472,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3483,24 +3495,162 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>19</v>
       </c>
     </row>
